--- a/data/trans_orig/Q5413-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Habitat-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4822</v>
+        <v>4771</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008256210895974463</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04193163247282373</v>
+        <v>0.04148947390525747</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8147</v>
+        <v>7807</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01566524895986001</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05448164042390502</v>
+        <v>0.05220983539462134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -786,19 +786,19 @@
         <v>3292</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9239</v>
+        <v>9017</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01244453475069642</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003571500890668221</v>
+        <v>0.0035899063992229</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03492597095426536</v>
+        <v>0.0340867046614258</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>5439</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1870</v>
+        <v>2599</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10967</v>
+        <v>10971</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04730142749726804</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01626392785109809</v>
+        <v>0.02259802502192552</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09537174136658123</v>
+        <v>0.09541009398710354</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7744</v>
+        <v>7054</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01472727457054706</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05178458467234673</v>
+        <v>0.04717246058202536</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -857,19 +857,19 @@
         <v>7641</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3605</v>
+        <v>3702</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14253</v>
+        <v>14632</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02888728242553958</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01362697497869183</v>
+        <v>0.01399419105415285</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05388061650043754</v>
+        <v>0.05531567366059605</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>108600</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>102197</v>
+        <v>102861</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>112281</v>
+        <v>112251</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9444423616067575</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8887534218628367</v>
+        <v>0.8945262747440753</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9764485957587296</v>
+        <v>0.9761874569077553</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>147</v>
@@ -907,19 +907,19 @@
         <v>144990</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>138508</v>
+        <v>139043</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>148331</v>
+        <v>148334</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9696074764695929</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9262580828433937</v>
+        <v>0.9298385698974243</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.991948046340027</v>
+        <v>0.991968714550023</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>259</v>
@@ -928,19 +928,19 @@
         <v>253591</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>245920</v>
+        <v>245069</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>258899</v>
+        <v>258740</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.958668182823764</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9296709817929198</v>
+        <v>0.9264535999765285</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9787361618617789</v>
+        <v>0.9781344133096429</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>2853</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7731</v>
+        <v>7602</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01955330353544869</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005924850166820264</v>
+        <v>0.005891316424829804</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05299295285135099</v>
+        <v>0.05210964709106253</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1053,19 +1053,19 @@
         <v>3768</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10053</v>
+        <v>10166</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02062467066840035</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006669557381069979</v>
+        <v>0.006624413568620683</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05503111289090473</v>
+        <v>0.05564711261145597</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -1074,19 +1074,19 @@
         <v>6620</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13986</v>
+        <v>13671</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02014896915940277</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00775331831940466</v>
+        <v>0.007746872111518088</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04256579484538187</v>
+        <v>0.04160888549804206</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>3996</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10101</v>
+        <v>9179</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02738809622196357</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006993770700784867</v>
+        <v>0.006919609918752414</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06923753993524606</v>
+        <v>0.06291539574641863</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1127,16 +1127,16 @@
         <v>1131</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10146</v>
+        <v>10959</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02330865807227666</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00619020829292701</v>
+        <v>0.006193004777283839</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05554058808873144</v>
+        <v>0.05998925436193051</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -1145,19 +1145,19 @@
         <v>8254</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4012</v>
+        <v>3887</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15551</v>
+        <v>14884</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0251199838297898</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01221162846374524</v>
+        <v>0.01183127362102431</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04733108980583933</v>
+        <v>0.04530005864483921</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>139041</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132855</v>
+        <v>132597</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>142911</v>
+        <v>143006</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9530586002425877</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9106548863367324</v>
+        <v>0.9088908305391586</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.979589002962951</v>
+        <v>0.9802385341830943</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>162</v>
@@ -1195,19 +1195,19 @@
         <v>174654</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>166575</v>
+        <v>166960</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>179205</v>
+        <v>179294</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.956066671259323</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9118402137357977</v>
+        <v>0.913946756907303</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9809771244048415</v>
+        <v>0.9814672566331296</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>301</v>
@@ -1216,19 +1216,19 @@
         <v>313694</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>304060</v>
+        <v>303841</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>319955</v>
+        <v>319835</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9547310470108075</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9254081950983165</v>
+        <v>0.9247419499335123</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9737861977152218</v>
+        <v>0.9734210501894474</v>
       </c>
     </row>
     <row r="11">
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6612</v>
+        <v>6762</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01423047837100283</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04867336586679974</v>
+        <v>0.04977443911659014</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6837</v>
+        <v>6465</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.008047627177824266</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02846182865098408</v>
+        <v>0.0269113809355538</v>
       </c>
     </row>
     <row r="13">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6643</v>
+        <v>6337</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01803005167421985</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06364364382824743</v>
+        <v>0.06072077984007612</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1404,19 +1404,19 @@
         <v>5148</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1947</v>
+        <v>1931</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11051</v>
+        <v>11131</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03789168653252235</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01433257459930061</v>
+        <v>0.01421591225342799</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08134600116949572</v>
+        <v>0.08193787808302319</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1425,19 +1425,19 @@
         <v>7029</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3052</v>
+        <v>2948</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13911</v>
+        <v>12878</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02926221325828844</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0127033640361735</v>
+        <v>0.01227161481290517</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05790968756940582</v>
+        <v>0.0536103999618851</v>
       </c>
     </row>
     <row r="14">
@@ -1454,7 +1454,7 @@
         <v>102489</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>97728</v>
+        <v>98034</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>104371</v>
@@ -1463,7 +1463,7 @@
         <v>0.9819699483257801</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9363563561717524</v>
+        <v>0.9392792201599246</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1475,19 +1475,19 @@
         <v>128769</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>122469</v>
+        <v>122086</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>132929</v>
+        <v>132872</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9478778350964748</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9014985489910847</v>
+        <v>0.8986799405571751</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9784949050920224</v>
+        <v>0.9780820808361181</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>233</v>
@@ -1496,19 +1496,19 @@
         <v>231258</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>223061</v>
+        <v>224858</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>235490</v>
+        <v>236091</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9626901595638873</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9285653396472713</v>
+        <v>0.9360475144883283</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9803043216867242</v>
+        <v>0.9828063568006986</v>
       </c>
     </row>
     <row r="15">
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4587</v>
+        <v>5231</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006110045474705776</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03342755153683204</v>
+        <v>0.0381205609407777</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1621,19 +1621,19 @@
         <v>6377</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2234</v>
+        <v>2294</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13514</v>
+        <v>13135</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0305443113639921</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01070175414991761</v>
+        <v>0.01098764468861446</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06473010597689793</v>
+        <v>0.06291612069584063</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1642,19 +1642,19 @@
         <v>7215</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3107</v>
+        <v>3080</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14111</v>
+        <v>14524</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02085397402278111</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008980136028543563</v>
+        <v>0.008901841554036212</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04078517180056618</v>
+        <v>0.04197680177449161</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>3292</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8325</v>
+        <v>8273</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02399267913515676</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00604307554326797</v>
+        <v>0.006021787378719063</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06066801237309126</v>
+        <v>0.06029045629463792</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1692,19 +1692,19 @@
         <v>3502</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1147</v>
+        <v>1156</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9308</v>
+        <v>9438</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01677160637867493</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005492421403998857</v>
+        <v>0.005538104864050363</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04458305757630259</v>
+        <v>0.04520550201817449</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1713,19 +1713,19 @@
         <v>6794</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2840</v>
+        <v>2824</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13485</v>
+        <v>13691</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01963539738810398</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.008209144518404047</v>
+        <v>0.008161162872292307</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03897501796449832</v>
+        <v>0.03956957824225427</v>
       </c>
     </row>
     <row r="18">
@@ -1742,19 +1742,19 @@
         <v>133086</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>128606</v>
+        <v>128123</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>135600</v>
+        <v>135601</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9698972753901375</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9372457174346757</v>
+        <v>0.9337290532449956</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.988219286325104</v>
+        <v>0.9882214984591451</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>191</v>
@@ -1763,19 +1763,19 @@
         <v>198899</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>190735</v>
+        <v>190989</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>204079</v>
+        <v>204195</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.952684082257333</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9135808054850585</v>
+        <v>0.9148009944610854</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9774988587392027</v>
+        <v>0.9780508234219032</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>342</v>
@@ -1784,19 +1784,19 @@
         <v>331986</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>323222</v>
+        <v>323626</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>337887</v>
+        <v>338149</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.959510628589115</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9341817026343359</v>
+        <v>0.9353485787613185</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9765650474848746</v>
+        <v>0.9773240908688826</v>
       </c>
     </row>
     <row r="19">
@@ -1888,19 +1888,19 @@
         <v>4640</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1708</v>
+        <v>1790</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10391</v>
+        <v>10451</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009235220828753374</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003398480084264861</v>
+        <v>0.00356235658764911</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02068041159921359</v>
+        <v>0.02080034893523233</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -1909,19 +1909,19 @@
         <v>14420</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7854</v>
+        <v>8251</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22954</v>
+        <v>24496</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02130538783815475</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01160408085792272</v>
+        <v>0.01219084568172347</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03391364210294133</v>
+        <v>0.036192234021306</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -1930,19 +1930,19 @@
         <v>19061</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11692</v>
+        <v>11570</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>29522</v>
+        <v>29262</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0161626697483658</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009913909407774219</v>
+        <v>0.009810521802431707</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02503364437183117</v>
+        <v>0.02481308265988981</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>14609</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8341</v>
+        <v>9038</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>23662</v>
+        <v>24042</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02907416803781678</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01659972655833012</v>
+        <v>0.01798662619481976</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0470921543891016</v>
+        <v>0.04784764857575685</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -1980,19 +1980,19 @@
         <v>15109</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8390</v>
+        <v>8495</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>24831</v>
+        <v>25341</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02232333434026529</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01239517582050205</v>
+        <v>0.01255050593662488</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03668668999075479</v>
+        <v>0.03744054970323402</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>30</v>
@@ -2001,19 +2001,19 @@
         <v>29718</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20527</v>
+        <v>20126</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>41688</v>
+        <v>41035</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02519965200434678</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01740573083344079</v>
+        <v>0.0170663127608628</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03534919664690642</v>
+        <v>0.03479547972007291</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>483217</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>472758</v>
+        <v>472760</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>489953</v>
+        <v>489621</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9616906111334298</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9408761879181544</v>
+        <v>0.9408790953747348</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9750977743287524</v>
+        <v>0.9744361805491425</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>633</v>
@@ -2051,19 +2051,19 @@
         <v>647312</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>634733</v>
+        <v>634513</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>656510</v>
+        <v>657116</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9563712778215799</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9377866384130155</v>
+        <v>0.9374604618441</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.969960346653541</v>
+        <v>0.9708561597506004</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1135</v>
@@ -2072,19 +2072,19 @@
         <v>1130529</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1114704</v>
+        <v>1117009</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1142347</v>
+        <v>1143491</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9586376782472874</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9452187724572843</v>
+        <v>0.9471734676563749</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.968658566034969</v>
+        <v>0.9696292229194806</v>
       </c>
     </row>
     <row r="23">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8471</v>
+        <v>6449</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01523049134908442</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06070591178703362</v>
+        <v>0.04621556507026429</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2437,19 +2437,19 @@
         <v>7368</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3117</v>
+        <v>3155</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13805</v>
+        <v>13730</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04417352455359618</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01869122536382769</v>
+        <v>0.01891408744100662</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08276885451458084</v>
+        <v>0.08232173936969492</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -2458,19 +2458,19 @@
         <v>9493</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5118</v>
+        <v>4243</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16892</v>
+        <v>16853</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03098881839971132</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01670785051553778</v>
+        <v>0.01385188274470303</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05514357548886523</v>
+        <v>0.05501612943994796</v>
       </c>
     </row>
     <row r="5">
@@ -2487,19 +2487,19 @@
         <v>5265</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2060</v>
+        <v>2037</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11306</v>
+        <v>11293</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03772854882082948</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01476295963789129</v>
+        <v>0.01459439615086269</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08102238572767961</v>
+        <v>0.08092644345305944</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -2508,19 +2508,19 @@
         <v>11767</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6289</v>
+        <v>6486</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20888</v>
+        <v>19403</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07055034663829451</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03770688198495786</v>
+        <v>0.03888613600520676</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1252395458319426</v>
+        <v>0.1163332094525441</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -2529,19 +2529,19 @@
         <v>17032</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9842</v>
+        <v>10517</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26199</v>
+        <v>27359</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05559870848041002</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03212856302270555</v>
+        <v>0.03433205068335882</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08552579623099106</v>
+        <v>0.08931094509759913</v>
       </c>
     </row>
     <row r="6">
@@ -2558,19 +2558,19 @@
         <v>132157</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>125066</v>
+        <v>125693</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>136408</v>
+        <v>136424</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9470409598300861</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8962273395108025</v>
+        <v>0.9007190855663387</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9775024663959666</v>
+        <v>0.9776239226730126</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>139</v>
@@ -2579,19 +2579,19 @@
         <v>147653</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>137493</v>
+        <v>138850</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>155276</v>
+        <v>154254</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8852761288081094</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8243656331825848</v>
+        <v>0.8324982092632721</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9309825796145768</v>
+        <v>0.9248550534029776</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>261</v>
@@ -2600,19 +2600,19 @@
         <v>279809</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>267872</v>
+        <v>267630</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>288124</v>
+        <v>288181</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9134124731198786</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8744427439566308</v>
+        <v>0.8736530601722515</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9405566166245425</v>
+        <v>0.9407418585255016</v>
       </c>
     </row>
     <row r="7">
@@ -2704,19 +2704,19 @@
         <v>6474</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2261</v>
+        <v>2294</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12882</v>
+        <v>12994</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04180162098767998</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01460068150346721</v>
+        <v>0.01481094578562216</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08317504388279064</v>
+        <v>0.08390069673390063</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -2725,19 +2725,19 @@
         <v>11100</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5471</v>
+        <v>5470</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19237</v>
+        <v>18750</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05798893283788491</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02857954940972502</v>
+        <v>0.02857598357827208</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1004982770593547</v>
+        <v>0.0979518156052237</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -2746,19 +2746,19 @@
         <v>17574</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10888</v>
+        <v>10794</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>29540</v>
+        <v>27952</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05074933213157507</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03144050259695107</v>
+        <v>0.03116895578033149</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0853008541048843</v>
+        <v>0.0807172429655372</v>
       </c>
     </row>
     <row r="9">
@@ -2775,19 +2775,19 @@
         <v>8730</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3418</v>
+        <v>4155</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15321</v>
+        <v>15923</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05636500303873378</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02206737407462835</v>
+        <v>0.02683078241112955</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09892273834039886</v>
+        <v>0.1028116447804595</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -2796,19 +2796,19 @@
         <v>26237</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17992</v>
+        <v>18135</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>38627</v>
+        <v>37198</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1370666855877453</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09399374776804324</v>
+        <v>0.09473698896568782</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2017914150685248</v>
+        <v>0.194328401600172</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>31</v>
@@ -2817,19 +2817,19 @@
         <v>34967</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>24248</v>
+        <v>24473</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>48485</v>
+        <v>48315</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1009737281289181</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07002031724229711</v>
+        <v>0.07067172103320886</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1400081469570963</v>
+        <v>0.1395192607808749</v>
       </c>
     </row>
     <row r="10">
@@ -2846,19 +2846,19 @@
         <v>139674</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>131640</v>
+        <v>129778</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>146484</v>
+        <v>145959</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9018333759735863</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8499620309288038</v>
+        <v>0.8379399516722567</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.945804861026494</v>
+        <v>0.9424150592053828</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>144</v>
@@ -2867,19 +2867,19 @@
         <v>154082</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>140384</v>
+        <v>142505</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>164439</v>
+        <v>163870</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8049443815743698</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7333795805609701</v>
+        <v>0.7444644490865919</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8590465332906857</v>
+        <v>0.856075492723547</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>268</v>
@@ -2888,19 +2888,19 @@
         <v>293757</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>276545</v>
+        <v>279522</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>306553</v>
+        <v>306280</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8482769397395068</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7985743560946956</v>
+        <v>0.8071730009985243</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8852289031237807</v>
+        <v>0.8844399039098852</v>
       </c>
     </row>
     <row r="11">
@@ -2992,19 +2992,19 @@
         <v>5409</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1843</v>
+        <v>1101</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13520</v>
+        <v>13712</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05221152181558432</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01778519997942576</v>
+        <v>0.01063026161292072</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1305037388174931</v>
+        <v>0.1323604159474862</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -3013,19 +3013,19 @@
         <v>9003</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3766</v>
+        <v>4172</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17630</v>
+        <v>17977</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06384445426196356</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02670765603714575</v>
+        <v>0.02958343863352661</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1250160037557645</v>
+        <v>0.1274809484205253</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -3034,19 +3034,19 @@
         <v>14412</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7337</v>
+        <v>7738</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>25954</v>
+        <v>23894</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05891776643790446</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02999504680381148</v>
+        <v>0.03163273679619114</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1060997758892142</v>
+        <v>0.09767786015457658</v>
       </c>
     </row>
     <row r="13">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7047</v>
+        <v>6527</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02043580780731232</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06801935221390731</v>
+        <v>0.06299969488252338</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -3084,19 +3084,19 @@
         <v>18000</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11605</v>
+        <v>10570</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27968</v>
+        <v>27552</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1276431286564114</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08229361285460679</v>
+        <v>0.07495360814799915</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1983314209397622</v>
+        <v>0.1953783302899923</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -3105,19 +3105,19 @@
         <v>20117</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12645</v>
+        <v>12363</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30927</v>
+        <v>30070</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08223952945974891</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05169215082060144</v>
+        <v>0.05054049524371303</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1264313910068712</v>
+        <v>0.1229258812506417</v>
       </c>
     </row>
     <row r="14">
@@ -3134,19 +3134,19 @@
         <v>96072</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>88103</v>
+        <v>86921</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>100543</v>
+        <v>100511</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9273526703771033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.850436154233093</v>
+        <v>0.8390225342744676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9705091141656873</v>
+        <v>0.9702048598567546</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>105</v>
@@ -3155,19 +3155,19 @@
         <v>114016</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>102740</v>
+        <v>102847</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>122812</v>
+        <v>123027</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.808512417081625</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7285573402698008</v>
+        <v>0.7293115172063759</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8708910496565503</v>
+        <v>0.872414137947119</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>189</v>
@@ -3176,19 +3176,19 @@
         <v>210088</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>197191</v>
+        <v>197870</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>220244</v>
+        <v>219925</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8588427041023466</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8061228688200304</v>
+        <v>0.8088955423683751</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9003633974322658</v>
+        <v>0.8990567196105215</v>
       </c>
     </row>
     <row r="15">
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7002</v>
+        <v>6263</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01254040511692244</v>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04332532264082204</v>
+        <v>0.03875535194910951</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -3301,19 +3301,19 @@
         <v>8392</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4092</v>
+        <v>3616</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16229</v>
+        <v>15170</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.034428250825867</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01678638200990183</v>
+        <v>0.01483582797294718</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06657995437512602</v>
+        <v>0.06223744944473852</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -3322,19 +3322,19 @@
         <v>10419</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5239</v>
+        <v>5090</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19228</v>
+        <v>17903</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02570183008352244</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01292535559263818</v>
+        <v>0.01255636609369236</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04743336916318525</v>
+        <v>0.04416633494512406</v>
       </c>
     </row>
     <row r="17">
@@ -3351,19 +3351,19 @@
         <v>13185</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6655</v>
+        <v>6903</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22471</v>
+        <v>23319</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08158618057213836</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04117991216944081</v>
+        <v>0.04271330361193205</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1390417521137449</v>
+        <v>0.1442885758944144</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -3372,19 +3372,19 @@
         <v>14673</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8509</v>
+        <v>8938</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23863</v>
+        <v>23858</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06019891767588859</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03490949423062423</v>
+        <v>0.03666801801752111</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0978992099042461</v>
+        <v>0.09787721581968561</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>25</v>
@@ -3393,19 +3393,19 @@
         <v>27859</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17974</v>
+        <v>18256</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>41056</v>
+        <v>41559</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06872576207353258</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04434149280698924</v>
+        <v>0.04503512603706679</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1012828260438692</v>
+        <v>0.1025232141968604</v>
       </c>
     </row>
     <row r="18">
@@ -3422,19 +3422,19 @@
         <v>146401</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>136638</v>
+        <v>135751</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>153425</v>
+        <v>153271</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9058734143109392</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8454670770974659</v>
+        <v>0.8399739324421129</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9493387648562753</v>
+        <v>0.9483803801609515</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>209</v>
@@ -3443,19 +3443,19 @@
         <v>220685</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>210374</v>
+        <v>210397</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>228331</v>
+        <v>228719</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9053728314982444</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8630726261529472</v>
+        <v>0.8631652277923688</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9367438472237809</v>
+        <v>0.9383354394761892</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>343</v>
@@ -3464,19 +3464,19 @@
         <v>367086</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>354088</v>
+        <v>352645</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>378724</v>
+        <v>377592</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.905572407842945</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8735083718301493</v>
+        <v>0.8699494596793839</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9342829882101006</v>
+        <v>0.9314899151088194</v>
       </c>
     </row>
     <row r="19">
@@ -3568,19 +3568,19 @@
         <v>16035</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9584</v>
+        <v>9461</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26294</v>
+        <v>26428</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02865294014200883</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01712621871389013</v>
+        <v>0.01690646353126406</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04698398606949729</v>
+        <v>0.04722276121654314</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -3589,19 +3589,19 @@
         <v>35863</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23737</v>
+        <v>24560</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48015</v>
+        <v>49619</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04826936267045644</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0319482789489466</v>
+        <v>0.03305610283802786</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06462483236218794</v>
+        <v>0.06678431420455824</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>46</v>
@@ -3610,19 +3610,19 @@
         <v>51898</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>38322</v>
+        <v>38577</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>67115</v>
+        <v>68867</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03984162188897991</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02941952924523092</v>
+        <v>0.02961504888314944</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05152371388927852</v>
+        <v>0.05286849435162169</v>
       </c>
     </row>
     <row r="21">
@@ -3639,19 +3639,19 @@
         <v>29297</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19354</v>
+        <v>20223</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42752</v>
+        <v>42855</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05235028464869421</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0345822593026635</v>
+        <v>0.03613569545859655</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07639245872141953</v>
+        <v>0.07657724338587381</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>65</v>
@@ -3660,19 +3660,19 @@
         <v>70678</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>54892</v>
+        <v>54203</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>88334</v>
+        <v>87175</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09512795474627249</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07388176413924862</v>
+        <v>0.07295386757130841</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1188916747682619</v>
+        <v>0.1173327967417152</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>91</v>
@@ -3681,19 +3681,19 @@
         <v>99975</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>81240</v>
+        <v>82527</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>123891</v>
+        <v>122622</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07674952135480739</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06236726385114189</v>
+        <v>0.06335511192822525</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09510986631607686</v>
+        <v>0.09413582540612313</v>
       </c>
     </row>
     <row r="22">
@@ -3710,19 +3710,19 @@
         <v>514305</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>499769</v>
+        <v>498251</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>526179</v>
+        <v>526582</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.918996775209297</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8930228871542668</v>
+        <v>0.8903101879962257</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9402146072358566</v>
+        <v>0.9409340480934542</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>597</v>
@@ -3731,19 +3731,19 @@
         <v>636434</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>614992</v>
+        <v>617130</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>654897</v>
+        <v>656553</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8566026825832711</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8277422393642957</v>
+        <v>0.8306201532843114</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8814516687298927</v>
+        <v>0.883681791307448</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1061</v>
@@ -3752,19 +3752,19 @@
         <v>1150739</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1122488</v>
+        <v>1126947</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1172929</v>
+        <v>1173560</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8834088567562127</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8617210975834726</v>
+        <v>0.8651440589545621</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9004441144945881</v>
+        <v>0.9009282884644256</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>3537</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8276</v>
+        <v>8816</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02586853110235333</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007298716046213678</v>
+        <v>0.007278132235246468</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06052864386339438</v>
+        <v>0.06447264959306306</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4117,19 +4117,19 @@
         <v>3456</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9261</v>
+        <v>9330</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01993025487414424</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006478178120316784</v>
+        <v>0.006439677506646495</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05340946629483438</v>
+        <v>0.05380825713447888</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -4138,19 +4138,19 @@
         <v>6993</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2901</v>
+        <v>3112</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13298</v>
+        <v>14299</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02254843992227434</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009355889826240259</v>
+        <v>0.01003476702102123</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04287836594801413</v>
+        <v>0.0461074834319818</v>
       </c>
     </row>
     <row r="5">
@@ -4167,19 +4167,19 @@
         <v>9600</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4931</v>
+        <v>5096</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15624</v>
+        <v>16999</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07020738050084348</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0360601738448178</v>
+        <v>0.03727031277678869</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1142632387292068</v>
+        <v>0.1243248513600329</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -4188,19 +4188,19 @@
         <v>13463</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6936</v>
+        <v>6858</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22815</v>
+        <v>22544</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07764647394065094</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04000270018668772</v>
+        <v>0.0395517920442016</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1315840652260221</v>
+        <v>0.1300167700121419</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -4209,19 +4209,19 @@
         <v>23063</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15392</v>
+        <v>15065</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35059</v>
+        <v>34776</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07436657882172337</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04963214697600794</v>
+        <v>0.04857864764254784</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1130474140018188</v>
+        <v>0.1121366302958049</v>
       </c>
     </row>
     <row r="6">
@@ -4238,19 +4238,19 @@
         <v>123597</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>117002</v>
+        <v>116217</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>129303</v>
+        <v>129410</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9039240883968032</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.855690495734067</v>
+        <v>0.8499459798285058</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9456550909047853</v>
+        <v>0.9464354504062217</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>143</v>
@@ -4259,19 +4259,19 @@
         <v>156472</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>146040</v>
+        <v>146645</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>163475</v>
+        <v>163283</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9024232711852048</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8422574988937489</v>
+        <v>0.8457479918283078</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9428117300134179</v>
+        <v>0.9417041593225626</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>276</v>
@@ -4280,19 +4280,19 @@
         <v>280069</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>268428</v>
+        <v>267897</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>289017</v>
+        <v>289579</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9030849812560023</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8655492844480978</v>
+        <v>0.8638359355502604</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9319356381087633</v>
+        <v>0.9337503117686793</v>
       </c>
     </row>
     <row r="7">
@@ -4384,19 +4384,19 @@
         <v>2563</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6790</v>
+        <v>7099</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01554055512197822</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004984023068622697</v>
+        <v>0.004945779321687814</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04116362689188714</v>
+        <v>0.04304172236862838</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -4405,19 +4405,19 @@
         <v>4530</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1237</v>
+        <v>1260</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13575</v>
+        <v>13499</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0206674614496499</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005644799591639233</v>
+        <v>0.00574864919999671</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06193979196963593</v>
+        <v>0.06159556766756392</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -4426,19 +4426,19 @@
         <v>7093</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2524</v>
+        <v>2136</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15394</v>
+        <v>14941</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0184658799898145</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006570395661668054</v>
+        <v>0.005562081875771539</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04007829323449278</v>
+        <v>0.03889940993780072</v>
       </c>
     </row>
     <row r="9">
@@ -4455,19 +4455,19 @@
         <v>5076</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1725</v>
+        <v>2421</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10422</v>
+        <v>11219</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03077566357100566</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01045638158077166</v>
+        <v>0.01467507720976382</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06318871814606919</v>
+        <v>0.06802018168094127</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -4476,19 +4476,19 @@
         <v>13549</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7200</v>
+        <v>7185</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22315</v>
+        <v>23400</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06181970031225949</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03285352780227819</v>
+        <v>0.03278465353206645</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.101818509718396</v>
+        <v>0.1067697802826642</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>17</v>
@@ -4497,19 +4497,19 @@
         <v>18625</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11519</v>
+        <v>10315</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28842</v>
+        <v>28582</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04848885879500633</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02998911712366247</v>
+        <v>0.02685440626384528</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07508830744206561</v>
+        <v>0.07441237290011372</v>
       </c>
     </row>
     <row r="10">
@@ -4526,19 +4526,19 @@
         <v>157302</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>151438</v>
+        <v>150343</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>160958</v>
+        <v>161002</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9536837813070161</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9181315111073048</v>
+        <v>0.9114960994907869</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9758515416770576</v>
+        <v>0.9761210519433814</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>168</v>
@@ -4547,19 +4547,19 @@
         <v>201085</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>189540</v>
+        <v>189954</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>209011</v>
+        <v>208436</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9175128382380906</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.86483680827933</v>
+        <v>0.8667241215904654</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9536773991315169</v>
+        <v>0.9510528732595861</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>334</v>
@@ -4568,19 +4568,19 @@
         <v>358386</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>346894</v>
+        <v>346454</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>367251</v>
+        <v>368107</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9330452612151792</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9031257436924952</v>
+        <v>0.901978390141097</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9561243971983063</v>
+        <v>0.9583524925516785</v>
       </c>
     </row>
     <row r="11">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5169</v>
+        <v>4438</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008869134381670158</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04493419131458797</v>
+        <v>0.03858323125983543</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -4693,19 +4693,19 @@
         <v>7545</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2664</v>
+        <v>2645</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15682</v>
+        <v>15265</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05291030421046066</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01868033159709328</v>
+        <v>0.0185455545824196</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1099715659698485</v>
+        <v>0.1070477806975149</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -4714,19 +4714,19 @@
         <v>8565</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3652</v>
+        <v>3657</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16549</v>
+        <v>16811</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03324544665964524</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01417603558481495</v>
+        <v>0.01419406582128825</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06423404836574156</v>
+        <v>0.06525241472506205</v>
       </c>
     </row>
     <row r="13">
@@ -4743,19 +4743,19 @@
         <v>6837</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2642</v>
+        <v>2881</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12566</v>
+        <v>12954</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0594375980971016</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0229680621424051</v>
+        <v>0.0250413998119762</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.109237420436204</v>
+        <v>0.1126101605245017</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -4764,19 +4764,19 @@
         <v>12185</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5938</v>
+        <v>5924</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22128</v>
+        <v>22403</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08544970542114395</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04164216083733208</v>
+        <v>0.04154115753005891</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1551820571210577</v>
+        <v>0.1571066777176588</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -4785,19 +4785,19 @@
         <v>19022</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10888</v>
+        <v>11764</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29609</v>
+        <v>30315</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0738350188196672</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04226114166085224</v>
+        <v>0.04566389444301648</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.114926275349501</v>
+        <v>0.1176666790655063</v>
       </c>
     </row>
     <row r="14">
@@ -4814,19 +4814,19 @@
         <v>107177</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101274</v>
+        <v>100715</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>111498</v>
+        <v>111317</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9316932675212283</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.880376957426239</v>
+        <v>0.8755139106461715</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9692551829040178</v>
+        <v>0.9676773927317363</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>103</v>
@@ -4835,19 +4835,19 @@
         <v>122866</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>111195</v>
+        <v>112422</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>131292</v>
+        <v>131018</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8616399903683953</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7797897974144713</v>
+        <v>0.7883937436419577</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9207277906648454</v>
+        <v>0.9188043984723214</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>209</v>
@@ -4856,19 +4856,19 @@
         <v>230044</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>217492</v>
+        <v>217275</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>239997</v>
+        <v>239387</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8929195345206875</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8441991650322862</v>
+        <v>0.843356761434045</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9315541788675226</v>
+        <v>0.9291842503330493</v>
       </c>
     </row>
     <row r="15">
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3131</v>
+        <v>3828</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004375417880110798</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01793280497615641</v>
+        <v>0.02191984644570067</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -4981,19 +4981,19 @@
         <v>5038</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12341</v>
+        <v>12361</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02074936155755671</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005240298066792414</v>
+        <v>0.005228922070882344</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05083003729938029</v>
+        <v>0.05091232141890675</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -5002,19 +5002,19 @@
         <v>5802</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2010</v>
+        <v>2079</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12942</v>
+        <v>13580</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01389935315824646</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004815807867200178</v>
+        <v>0.004980544570707163</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03100508561452829</v>
+        <v>0.03253411901215838</v>
       </c>
     </row>
     <row r="17">
@@ -5031,19 +5031,19 @@
         <v>6259</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2487</v>
+        <v>2541</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12386</v>
+        <v>12313</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03584240706460214</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0142412344102795</v>
+        <v>0.01455229759073144</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07093187611820609</v>
+        <v>0.07051504483243708</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -5052,19 +5052,19 @@
         <v>11855</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5121</v>
+        <v>5492</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22057</v>
+        <v>21690</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04882942807996345</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02109204913506108</v>
+        <v>0.02262259819825142</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09085091884277699</v>
+        <v>0.08934102637797961</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -5073,19 +5073,19 @@
         <v>18114</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9901</v>
+        <v>10539</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29646</v>
+        <v>30222</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04339633237683225</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0237196614432155</v>
+        <v>0.02524965440617635</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07102475473876621</v>
+        <v>0.07240581500269716</v>
       </c>
     </row>
     <row r="18">
@@ -5102,19 +5102,19 @@
         <v>167595</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>161348</v>
+        <v>161299</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>171524</v>
+        <v>171384</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9597821750552871</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9240030439026455</v>
+        <v>0.9237252733900528</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9822787936808821</v>
+        <v>0.9814808950040436</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>186</v>
@@ -5123,19 +5123,19 @@
         <v>225889</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>214566</v>
+        <v>213972</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>233681</v>
+        <v>233438</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9304212103624798</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8837849588124949</v>
+        <v>0.8813360755826425</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9625187776698637</v>
+        <v>0.9615169221157001</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>368</v>
@@ -5144,19 +5144,19 @@
         <v>393485</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>380378</v>
+        <v>379726</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>402846</v>
+        <v>401736</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9427043144649213</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9113037309826268</v>
+        <v>0.9097424048608468</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9651309762068687</v>
+        <v>0.9624713465618191</v>
       </c>
     </row>
     <row r="19">
@@ -5248,19 +5248,19 @@
         <v>7885</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3542</v>
+        <v>3662</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13900</v>
+        <v>14759</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01333382825653308</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005990252344639737</v>
+        <v>0.006192742614898788</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02350656826071905</v>
+        <v>0.02495890361317886</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -5269,19 +5269,19 @@
         <v>20568</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12143</v>
+        <v>12206</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>31654</v>
+        <v>32795</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02643886985996252</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01560939890619797</v>
+        <v>0.01569038050638642</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0406899766994222</v>
+        <v>0.04215621566238242</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -5290,19 +5290,19 @@
         <v>28452</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17655</v>
+        <v>19031</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40798</v>
+        <v>40932</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02077932843683528</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01289408420099123</v>
+        <v>0.01389900960560117</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02979532113257839</v>
+        <v>0.02989318080147898</v>
       </c>
     </row>
     <row r="21">
@@ -5319,19 +5319,19 @@
         <v>27772</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19709</v>
+        <v>18996</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38817</v>
+        <v>38577</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04696553602805021</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03333042152161954</v>
+        <v>0.03212489674544652</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06564316092972756</v>
+        <v>0.06523839501034706</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>39</v>
@@ -5340,19 +5340,19 @@
         <v>51051</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>35959</v>
+        <v>37098</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>68728</v>
+        <v>69253</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06562462013646428</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04622354509747601</v>
+        <v>0.0476880545511331</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08834765156679961</v>
+        <v>0.08902225800421344</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>70</v>
@@ -5361,19 +5361,19 @@
         <v>78823</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>61830</v>
+        <v>63546</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>99400</v>
+        <v>100263</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05756651069852477</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04515615716333225</v>
+        <v>0.04640931155679181</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07259414497114992</v>
+        <v>0.07322399182221301</v>
       </c>
     </row>
     <row r="22">
@@ -5390,19 +5390,19 @@
         <v>555671</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>543194</v>
+        <v>543780</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>564624</v>
+        <v>565130</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9397006357154167</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9186001127909812</v>
+        <v>0.9195913186920865</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9548402652951206</v>
+        <v>0.9556971511191401</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>600</v>
@@ -5411,19 +5411,19 @@
         <v>706312</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>686474</v>
+        <v>685580</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>723569</v>
+        <v>722336</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9079365100035732</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8824358795048375</v>
+        <v>0.8812858484833761</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9301202578281202</v>
+        <v>0.9285347890354211</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1187</v>
@@ -5432,19 +5432,19 @@
         <v>1261983</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1240161</v>
+        <v>1239897</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1283401</v>
+        <v>1281715</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9216541608646399</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9057169600646515</v>
+        <v>0.9055242644949784</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9372963446209587</v>
+        <v>0.9360647288012546</v>
       </c>
     </row>
     <row r="23">
@@ -5776,19 +5776,19 @@
         <v>2972</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>882</v>
+        <v>696</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7165</v>
+        <v>7112</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01819636647349505</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005398080999765979</v>
+        <v>0.004259250221238782</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04387095422795127</v>
+        <v>0.043546871259155</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -5797,19 +5797,19 @@
         <v>3111</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1543</v>
+        <v>1361</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6245</v>
+        <v>5867</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0163319785674394</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008098461794270902</v>
+        <v>0.007142809248827516</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03278551867372186</v>
+        <v>0.03079869837573318</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -5818,19 +5818,19 @@
         <v>6083</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3164</v>
+        <v>3361</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11124</v>
+        <v>10484</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01719257118567627</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008943376476551844</v>
+        <v>0.009498310567244102</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03144009568781411</v>
+        <v>0.02963284582170867</v>
       </c>
     </row>
     <row r="5">
@@ -5847,19 +5847,19 @@
         <v>8704</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4660</v>
+        <v>4961</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13545</v>
+        <v>13869</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05329677696400149</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0285312100069393</v>
+        <v>0.03037913926577054</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08293578278525054</v>
+        <v>0.08492494746359559</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>52</v>
@@ -5868,19 +5868,19 @@
         <v>21395</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16286</v>
+        <v>16235</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27737</v>
+        <v>27672</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1123135715354389</v>
+        <v>0.1123135715354388</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08549495676229436</v>
+        <v>0.08522515560399707</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1456061775468973</v>
+        <v>0.1452653854197105</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>67</v>
@@ -5889,19 +5889,19 @@
         <v>30099</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23458</v>
+        <v>23514</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37794</v>
+        <v>37320</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.08507169896417116</v>
+        <v>0.08507169896417115</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06630309256388507</v>
+        <v>0.06645977735206417</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1068208655099915</v>
+        <v>0.1054816734774574</v>
       </c>
     </row>
     <row r="6">
@@ -5918,19 +5918,19 @@
         <v>151638</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>146692</v>
+        <v>145647</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>156520</v>
+        <v>156453</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9285068565625034</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8982185189449752</v>
+        <v>0.8918248091100819</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9584009511011117</v>
+        <v>0.957989393393578</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>385</v>
@@ -5939,19 +5939,19 @@
         <v>165984</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>159182</v>
+        <v>159395</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>171463</v>
+        <v>171662</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.8713544498971216</v>
+        <v>0.8713544498971219</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8356443531614287</v>
+        <v>0.836762589895766</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9001129853527937</v>
+        <v>0.9011594843399435</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>618</v>
@@ -5960,19 +5960,19 @@
         <v>317622</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>307778</v>
+        <v>310219</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>324877</v>
+        <v>324958</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.8977357298501525</v>
+        <v>0.8977357298501524</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8699119655951042</v>
+        <v>0.8768106969856884</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.918239855514842</v>
+        <v>0.9184682607064368</v>
       </c>
     </row>
     <row r="7">
@@ -6064,19 +6064,19 @@
         <v>1947</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6375</v>
+        <v>5432</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01092427760649089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002738126829291283</v>
+        <v>0.00268600415810863</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0357710003896056</v>
+        <v>0.03048428609061856</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -6085,19 +6085,19 @@
         <v>7758</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4293</v>
+        <v>4499</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12524</v>
+        <v>13070</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03210305452327776</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01776488212450982</v>
+        <v>0.01861529609127077</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05182254730757183</v>
+        <v>0.05408575232065829</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -6106,19 +6106,19 @@
         <v>9705</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6077</v>
+        <v>6123</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15957</v>
+        <v>15337</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0231141390467889</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01447350125156179</v>
+        <v>0.01458436789849636</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03800572907875868</v>
+        <v>0.03652829483288429</v>
       </c>
     </row>
     <row r="9">
@@ -6135,19 +6135,19 @@
         <v>11323</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6807</v>
+        <v>6399</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19025</v>
+        <v>17605</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06354113582189727</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03819718802227434</v>
+        <v>0.03590880563605198</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1067611560880316</v>
+        <v>0.09879399337758653</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>37</v>
@@ -6156,19 +6156,19 @@
         <v>19661</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14399</v>
+        <v>14240</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>26415</v>
+        <v>27305</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08135861731302166</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05958391132936185</v>
+        <v>0.05892474454464389</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1093063890299937</v>
+        <v>0.1129880690103512</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>54</v>
@@ -6177,19 +6177,19 @@
         <v>30985</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>23168</v>
+        <v>23695</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>40146</v>
+        <v>40824</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07379633759512753</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05517856057563873</v>
+        <v>0.05643445942693134</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09561663119228643</v>
+        <v>0.09723204745934401</v>
       </c>
     </row>
     <row r="10">
@@ -6206,19 +6206,19 @@
         <v>164934</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>156763</v>
+        <v>158734</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>169908</v>
+        <v>170177</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9255345865716117</v>
+        <v>0.9255345865716119</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.879682508220726</v>
+        <v>0.8907410000401366</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9534475449307919</v>
+        <v>0.9549557208685555</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>396</v>
@@ -6227,19 +6227,19 @@
         <v>214243</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>206814</v>
+        <v>205946</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>220607</v>
+        <v>220297</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8865383281637006</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8557974736978872</v>
+        <v>0.8522067646597222</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9128740410434983</v>
+        <v>0.911590018004643</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>630</v>
@@ -6248,19 +6248,19 @@
         <v>379177</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>369014</v>
+        <v>368853</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>387887</v>
+        <v>387503</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9030895233580836</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8788845120542769</v>
+        <v>0.8785025211670835</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9238358998406482</v>
+        <v>0.9229202091679887</v>
       </c>
     </row>
     <row r="11">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6490</v>
+        <v>6180</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01168991952691267</v>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04061582986728089</v>
+        <v>0.03867600614659788</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -6373,19 +6373,19 @@
         <v>6403</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3005</v>
+        <v>3047</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11559</v>
+        <v>11538</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.03660795321524727</v>
+        <v>0.03660795321524728</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01717770919192826</v>
+        <v>0.01741863282954396</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06608722384158987</v>
+        <v>0.06596352910551419</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -6394,19 +6394,19 @@
         <v>8271</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4293</v>
+        <v>4095</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14551</v>
+        <v>14791</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02471194742467949</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01282788815903758</v>
+        <v>0.01223557810026178</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04347674433559606</v>
+        <v>0.0441932014169252</v>
       </c>
     </row>
     <row r="13">
@@ -6423,19 +6423,19 @@
         <v>3168</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8165</v>
+        <v>7945</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01982466219983815</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005424185431591283</v>
+        <v>0.005394689154483508</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05110209683130905</v>
+        <v>0.04972522906637266</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -6444,19 +6444,19 @@
         <v>7706</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4019</v>
+        <v>4104</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12558</v>
+        <v>12596</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04405731388380418</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02297622763477242</v>
+        <v>0.02346322863556663</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07179501187639201</v>
+        <v>0.07201688623199877</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -6465,19 +6465,19 @@
         <v>10874</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6324</v>
+        <v>6381</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16825</v>
+        <v>17427</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03248851321683073</v>
+        <v>0.03248851321683074</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0188937581395596</v>
+        <v>0.01906498494459144</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05027105551029118</v>
+        <v>0.05206762655270114</v>
       </c>
     </row>
     <row r="14">
@@ -6494,19 +6494,19 @@
         <v>154749</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>149641</v>
+        <v>149578</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>157920</v>
+        <v>157960</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9684854182732491</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9365142708966044</v>
+        <v>0.9361229226978308</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9883293487932499</v>
+        <v>0.9885778673053135</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>267</v>
@@ -6515,19 +6515,19 @@
         <v>160800</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>154066</v>
+        <v>154485</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>166059</v>
+        <v>165651</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9193347329009486</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8808329276063567</v>
+        <v>0.8832328718317495</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9494005439411336</v>
+        <v>0.9470676845925665</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>454</v>
@@ -6536,19 +6536,19 @@
         <v>315549</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>307947</v>
+        <v>307274</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>321752</v>
+        <v>321615</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9427995393584898</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9200849620294193</v>
+        <v>0.9180738125522159</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9613312059803311</v>
+        <v>0.9609214578263786</v>
       </c>
     </row>
     <row r="15">
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4492</v>
+        <v>3874</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005845859662616402</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02088463788230097</v>
+        <v>0.01800945373848258</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -6661,19 +6661,19 @@
         <v>5042</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2307</v>
+        <v>2397</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8945</v>
+        <v>9816</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01707063404153797</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0078120371779963</v>
+        <v>0.008116691881340498</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03028477810453784</v>
+        <v>0.03323365249069052</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -6682,19 +6682,19 @@
         <v>6299</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3275</v>
+        <v>3139</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11070</v>
+        <v>10685</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01234088265641268</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006416261246059474</v>
+        <v>0.006149506367243591</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02168561382000411</v>
+        <v>0.02093194706004162</v>
       </c>
     </row>
     <row r="17">
@@ -6711,19 +6711,19 @@
         <v>6816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11499</v>
+        <v>11886</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03169120369820371</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01691679030782125</v>
+        <v>0.01691601495465445</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05346316353103541</v>
+        <v>0.05526209548474031</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>35</v>
@@ -6732,19 +6732,19 @@
         <v>22432</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16288</v>
+        <v>15582</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31279</v>
+        <v>31431</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.075946576348788</v>
+        <v>0.07594657634878799</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05514523056469794</v>
+        <v>0.05275563129536136</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.105898940200352</v>
+        <v>0.106412467007083</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>46</v>
@@ -6753,19 +6753,19 @@
         <v>29248</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21140</v>
+        <v>22021</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38249</v>
+        <v>39767</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05729881533130131</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04141444047012621</v>
+        <v>0.04314082517326549</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07493195589871957</v>
+        <v>0.07790521389579833</v>
       </c>
     </row>
     <row r="18">
@@ -6782,19 +6782,19 @@
         <v>207015</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>201610</v>
+        <v>201698</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>210598</v>
+        <v>210581</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9624629366391798</v>
+        <v>0.9624629366391797</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9373319678678419</v>
+        <v>0.9377436968487762</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9791223517442295</v>
+        <v>0.9790414499439853</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>480</v>
@@ -6803,19 +6803,19 @@
         <v>267892</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>258421</v>
+        <v>258091</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>274540</v>
+        <v>274887</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9069827896096742</v>
+        <v>0.906982789609674</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.874917458766331</v>
+        <v>0.8738003166131616</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9294915791272167</v>
+        <v>0.9306653324829808</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>794</v>
@@ -6824,19 +6824,19 @@
         <v>474906</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>464825</v>
+        <v>464513</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>483938</v>
+        <v>482921</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.9303603020122859</v>
+        <v>0.930360302012286</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9106101241817843</v>
+        <v>0.9099998241115758</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9480535062242706</v>
+        <v>0.9460624027961044</v>
       </c>
     </row>
     <row r="19">
@@ -6928,19 +6928,19 @@
         <v>8044</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4160</v>
+        <v>3831</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14340</v>
+        <v>13926</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01122811130564676</v>
+        <v>0.01122811130564677</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005806819043045378</v>
+        <v>0.005348324167165491</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02001759562216862</v>
+        <v>0.01943910730022562</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>41</v>
@@ -6949,19 +6949,19 @@
         <v>22314</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15361</v>
+        <v>16207</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29165</v>
+        <v>30204</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02472700613662748</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01702153841243427</v>
+        <v>0.01795927013413088</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03231826609955291</v>
+        <v>0.03346984160910544</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>53</v>
@@ -6970,19 +6970,19 @@
         <v>30358</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>22892</v>
+        <v>23267</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40061</v>
+        <v>39616</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01875320771719611</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01414109155508469</v>
+        <v>0.0143730740908476</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02474709251915952</v>
+        <v>0.02447190112280928</v>
       </c>
     </row>
     <row r="21">
@@ -6999,19 +6999,19 @@
         <v>30011</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22721</v>
+        <v>22418</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>41320</v>
+        <v>40555</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04189258991605381</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03171590463438377</v>
+        <v>0.03129325463662677</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05767849699517404</v>
+        <v>0.05661077610914789</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>136</v>
@@ -7020,19 +7020,19 @@
         <v>71194</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>59936</v>
+        <v>59487</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>85635</v>
+        <v>84257</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0788916401475033</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06641662814432778</v>
+        <v>0.06591890305303684</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09489397311245205</v>
+        <v>0.09336682146587914</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>183</v>
@@ -7041,19 +7041,19 @@
         <v>101205</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>87166</v>
+        <v>87446</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>116051</v>
+        <v>117934</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06251808730776781</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05384560649682078</v>
+        <v>0.05401851069054415</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07168897060074843</v>
+        <v>0.07285197459447899</v>
       </c>
     </row>
     <row r="22">
@@ -7070,19 +7070,19 @@
         <v>678336</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>666650</v>
+        <v>665314</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>686694</v>
+        <v>686692</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9468792987782995</v>
+        <v>0.9468792987782996</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9305669744171549</v>
+        <v>0.9287029242301914</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9585467593034956</v>
+        <v>0.9585436715513667</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1528</v>
@@ -7091,19 +7091,19 @@
         <v>808918</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>792634</v>
+        <v>794029</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>821400</v>
+        <v>821628</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8963813537158691</v>
+        <v>0.8963813537158692</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8783372835404591</v>
+        <v>0.8798831082479088</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9102136880440865</v>
+        <v>0.9104660070496717</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2496</v>
@@ -7112,19 +7112,19 @@
         <v>1487255</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1469142</v>
+        <v>1468873</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1504435</v>
+        <v>1502156</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9187287049750362</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9075397266174023</v>
+        <v>0.9073739251795241</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9293417986230472</v>
+        <v>0.9279335790209766</v>
       </c>
     </row>
     <row r="23">
